--- a/data/trans_dic/P5_1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de patio en su vivienda</t>
+          <t>Población que disfruta de patio en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>65,34%</t>
+          <t>80,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>65,08%</t>
+          <t>80,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>61,55%</t>
+          <t>71,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>60,81%</t>
+          <t>67,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>63,26%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>62,86%</t>
+          <t>73,22%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,88; 77,43</t>
+          <t>63,13; 91,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>51,35; 78,04</t>
+          <t>61,93; 90,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,09; 72,88</t>
+          <t>57,12; 82,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,98; 71,75</t>
+          <t>51,12; 79,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,8; 72,0</t>
+          <t>64,53; 83,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,99; 71,65</t>
+          <t>62,26; 82,77</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,55%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>41,52%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>40,07%</t>
+          <t>42,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,07%</t>
+          <t>43,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,87%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>38,04%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,78; 48,72</t>
+          <t>15,7; 47,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,45; 55,44</t>
+          <t>16,13; 52,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,74; 51,11</t>
+          <t>30,06; 56,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,98; 51,02</t>
+          <t>30,82; 57,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,85; 46,09</t>
+          <t>25,54; 46,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,31; 49,34</t>
+          <t>26,74; 48,82</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>44,24%</t>
+          <t>53,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>50,68%</t>
+          <t>57,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>40,01%</t>
+          <t>40,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41,42%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>45,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>46,9%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,74; 54,26</t>
+          <t>40,12; 66,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,64; 63,37</t>
+          <t>44,79; 69,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,69; 47,59</t>
+          <t>31,92; 50,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,61; 49,31</t>
+          <t>31,55; 50,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,02; 48,6</t>
+          <t>36,57; 52,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,29; 53,76</t>
+          <t>38,25; 54,26</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>52,34%</t>
+          <t>48,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>52,94%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>44,37%</t>
+          <t>42,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>44,17%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,96%</t>
+          <t>45,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,08%</t>
+          <t>45,72%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,85; 61,2</t>
+          <t>38,44; 60,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,16; 61,76</t>
+          <t>38,14; 59,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,67; 51,74</t>
+          <t>33,11; 52,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,74; 52,46</t>
+          <t>34,0; 52,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,69; 53,04</t>
+          <t>37,69; 52,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,78; 53,07</t>
+          <t>38,05; 52,9</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>48,18%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,21%</t>
+          <t>46,88%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>42,41%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>43,03%</t>
+          <t>41,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>45,37%</t>
+          <t>43,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>46,25%</t>
+          <t>44,58%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,73; 57,57</t>
+          <t>32,57; 57,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,45; 59,27</t>
+          <t>33,49; 59,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,24; 51,41</t>
+          <t>28,05; 53,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,68; 52,19</t>
+          <t>29,15; 55,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,27; 52,52</t>
+          <t>33,67; 52,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,94; 53,37</t>
+          <t>34,33; 54,14</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>45,92%</t>
+          <t>57,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>45,87%</t>
+          <t>55,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>40,35%</t>
+          <t>41,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>48,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>43,27%</t>
+          <t>47,53%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,33; 57,25</t>
+          <t>41,8; 72,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>33,52; 57,24</t>
+          <t>39,27; 70,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,62; 50,83</t>
+          <t>28,43; 56,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,51; 52,27</t>
+          <t>27,77; 56,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,31; 50,89</t>
+          <t>38,7; 59,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,75; 51,47</t>
+          <t>37,06; 58,67</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>48,11%</t>
+          <t>50,45%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>50,73%</t>
+          <t>51,65%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>44,28%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>44,52%</t>
+          <t>45,16%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>47,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,45%</t>
+          <t>48,16%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,36; 52,96</t>
+          <t>44,15; 57,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>45,56; 56,13</t>
+          <t>44,59; 58,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>40,07; 47,92</t>
+          <t>40,11; 50,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>40,21; 48,19</t>
+          <t>39,84; 50,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,13; 48,93</t>
+          <t>43,76; 51,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,53; 50,61</t>
+          <t>43,88; 51,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de patio en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>69337</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>86112</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>84015</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>90364</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>153352</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>176475</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>54360; 78390</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>66275; 97267</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>67154; 97447</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>68500; 107169</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>131431; 170695</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>150055; 199487</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>41464</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>54995</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>56651</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>71986</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>98115</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>126981</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21480; 64539</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>27222; 88327</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>40067; 75825</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>50890; 95260</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>68986; 126720</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>89281; 162990</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>74576</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>93034</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>87302</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>106837</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>161878</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>199871</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>56063; 92986</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>72582; 113215</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>68765; 109122</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>83304; 133519</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>129871; 186930</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>162977; 231224</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>80003</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>91468</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>80537</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>93708</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>160539</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>185176</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>62845; 98221</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>71214; 111815</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>63325; 99481</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>74237; 115683</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>133694; 185956</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>154117; 214267</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>63537</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>73805</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>41636</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>48174</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>105173</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>121978</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>45243; 79278</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>52727; 93035</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>29024; 55791</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>33871; 64139</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>81615; 127382</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>93927; 148150</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>52150</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>60893</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>44341</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>56473</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>96491</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>117365</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>37721; 65645</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>42927; 77060</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>30424; 60416</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>38219; 77223</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>76342; 117842</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>91499; 144859</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>341.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>381067</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>460307</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>394482</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>467540</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>775549</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>927848</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>333477; 430491</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>397438; 521149</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>348172; 436045</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>412440; 518022</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>710416; 833145</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>845479; 998902</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>